--- a/biology/Microbiologie/Auribacter/Auribacter.xlsx
+++ b/biology/Microbiologie/Auribacter/Auribacter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre de bactéries "Candidatus Auribacter" fait partie de la famille "Candidatus Auribacteraceae" du phylum "candidatus Auribacterota" du règne des Bacteria.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est proposé en 2022 par T. J. Williams sous le nom de "candidatus Auribacter" pour contenir des bactéries non cultivables identifiées dans les profondeurs d'une mine d'or et connues depuis la publication de Momper et al. sous le nom de "MAG SURF_26"[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est proposé en 2022 par T. J. Williams sous le nom de "candidatus Auribacter" pour contenir des bactéries non cultivables identifiées dans les profondeurs d'une mine d'or et connues depuis la publication de Momper et al. sous le nom de "MAG SURF_26",.
 </t>
         </is>
       </c>
@@ -542,13 +556,85 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom de "candidatus Auribacter" a été publié de manière non valide et ce nouveau nom est considéré comme le nom préféré et non pas le nom correct[3].
-Étymologie
-L'étymologie du nom de genre "Auribacter" vient de l'endroit où ont été prélevé les bactéries, « bactérie venant d'une mine d'or »[4] et est la suivante : Au.ri’bac.ter. L. neut. n. aurum, or, en référence au lieu d'isolement, une ancienne mine d'or; N.L. masc. n. bacter, bactérie; N.L. masc. n. Auribacter, la bactérie d'or[3],[5].
-Liste des genres
-Selon la base de nomenclature LPSN[6], ce genre ne contient qu'une espèce candidats :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de "candidatus Auribacter" a été publié de manière non valide et ce nouveau nom est considéré comme le nom préféré et non pas le nom correct.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auribacter</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auribacter</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de genre "Auribacter" vient de l'endroit où ont été prélevé les bactéries, « bactérie venant d'une mine d'or » et est la suivante : Au.ri’bac.ter. L. neut. n. aurum, or, en référence au lieu d'isolement, une ancienne mine d'or; N.L. masc. n. bacter, bactérie; N.L. masc. n. Auribacter, la bactérie d'or,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Auribacter</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auribacter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la base de nomenclature LPSN, ce genre ne contient qu'une espèce candidats :
 "Candidatus Auribacter fodinae" Williams et al. 2022 nom préféré (nom non correct)</t>
         </is>
       </c>
